--- a/Proyectos/2020/3/P4214 - RNCNOM,RNCCON,XML,Jose Antonio Garcia_AG/Compras/P4214 - RNCNOM,RNCCON,XML,Jose Antonio Garcia_AG.xlsx
+++ b/Proyectos/2020/3/P4214 - RNCNOM,RNCCON,XML,Jose Antonio Garcia_AG/Compras/P4214 - RNCNOM,RNCCON,XML,Jose Antonio Garcia_AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Proyectos\2020\3\P4214 - RNCNOM,RNCCON,XML,Jose Antonio Garcia_AG\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41253610-BA21-4894-9944-264C80796C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2513D17-6EAE-42AB-BC91-145DF6C5EBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3782,8 +3782,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="S14" s="143">
         <f ca="1">TODAY()</f>
-        <v>43917</v>
+        <v>43923</v>
       </c>
       <c r="T14" s="144"/>
       <c r="U14" s="109"/>
@@ -4524,18 +4524,18 @@
         <v>4390</v>
       </c>
       <c r="Q23" s="71">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="R23" s="42">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>3073</v>
+        <v>3731.5</v>
       </c>
       <c r="S23" s="73">
         <v>0.3</v>
       </c>
       <c r="T23" s="43">
         <f>R23*(1-S23)</f>
-        <v>2151.1</v>
+        <v>2612.0499999999997</v>
       </c>
       <c r="U23" s="109"/>
     </row>
@@ -4581,18 +4581,18 @@
         <v>3890</v>
       </c>
       <c r="Q24" s="71">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="R24" s="42">
         <f t="shared" si="0"/>
-        <v>2723</v>
+        <v>3306.5</v>
       </c>
       <c r="S24" s="73">
         <v>0.3</v>
       </c>
       <c r="T24" s="43">
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
-        <v>1906.1</v>
+        <v>2314.5499999999997</v>
       </c>
       <c r="U24" s="109"/>
     </row>
@@ -5047,7 +5047,7 @@
       <c r="S36" s="150"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
-        <v>4943.75</v>
+        <v>5813.15</v>
       </c>
       <c r="U36" s="109"/>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="O37" s="194"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
-        <v>7062.5</v>
+        <v>8304.5</v>
       </c>
       <c r="Q37" s="77" t="s">
         <v>46</v>
@@ -5088,7 +5088,7 @@
       <c r="S37" s="150"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
-        <v>791</v>
+        <v>930.10399999999993</v>
       </c>
       <c r="U37" s="109"/>
     </row>
@@ -5147,7 +5147,7 @@
       <c r="S39" s="154"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
-        <v>5734.75</v>
+        <v>6743.2539999999999</v>
       </c>
       <c r="U39" s="109"/>
     </row>
